--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_29.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_29.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_6</t>
+          <t>model_1_29_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999184890476237</v>
+        <v>0.9358676834928537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8282968640767219</v>
+        <v>0.7482527705253266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8212478277794066</v>
+        <v>0.6543915111432115</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9991763425905466</v>
+        <v>0.9409141656470038</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003392915153503853</v>
+        <v>0.2669524795907219</v>
       </c>
       <c r="G2" t="n">
-        <v>1.148179660539204</v>
+        <v>1.683434882686545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6393861553866016</v>
+        <v>1.236221525109149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008453219236500534</v>
+        <v>0.2830997988932097</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04421524465344054</v>
+        <v>1.457046207779935</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01841986740859948</v>
+        <v>0.5166744425561631</v>
       </c>
       <c r="L2" t="n">
-        <v>1.005216700952083</v>
+        <v>0.9126708881604816</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01870996190717282</v>
+        <v>0.5248115485414653</v>
       </c>
       <c r="N2" t="n">
-        <v>145.9773017856444</v>
+        <v>36.64136923096601</v>
       </c>
       <c r="O2" t="n">
-        <v>287.3124743288608</v>
+        <v>73.60595281919183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_5</t>
+          <t>model_1_29_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999187597327734</v>
+        <v>0.9359459131172672</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8282921204233482</v>
+        <v>0.7469388431639703</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8212941916578383</v>
+        <v>0.6555572483729735</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999225263752621</v>
+        <v>0.9389119902176957</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000338164781188317</v>
+        <v>0.2666268466906173</v>
       </c>
       <c r="G3" t="n">
-        <v>1.148211381371156</v>
+        <v>1.692221121002014</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6392203144817836</v>
+        <v>1.232051750631618</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007951139969595212</v>
+        <v>0.2926928844033466</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04536168330492301</v>
+        <v>1.441822790553704</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01838925722231099</v>
+        <v>0.5163592225288682</v>
       </c>
       <c r="L3" t="n">
-        <v>1.0051993771025</v>
+        <v>0.9127774136064915</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01867886964104925</v>
+        <v>0.524491364113845</v>
       </c>
       <c r="N3" t="n">
-        <v>145.9839545259421</v>
+        <v>36.64381035208515</v>
       </c>
       <c r="O3" t="n">
-        <v>287.3191270691585</v>
+        <v>73.60839394031098</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_9</t>
+          <t>model_1_29_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999161313154336</v>
+        <v>0.9359311937827378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8282856480639116</v>
+        <v>0.746116147532937</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8213462020301651</v>
+        <v>0.6563263387072529</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9990991572949616</v>
+        <v>0.9373930759549337</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003491056385359032</v>
+        <v>0.2666881163135554</v>
       </c>
       <c r="G4" t="n">
-        <v>1.148254662068511</v>
+        <v>1.697722490474898</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6390342763957058</v>
+        <v>1.229300759100321</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009245374103227564</v>
+        <v>0.2999705056307116</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04747000548222798</v>
+        <v>1.431036750730184</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01868436882894103</v>
+        <v>0.5164185476079993</v>
       </c>
       <c r="L4" t="n">
-        <v>1.005367595812253</v>
+        <v>0.9127573702573452</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01897862896048033</v>
+        <v>0.5245516235036691</v>
       </c>
       <c r="N4" t="n">
-        <v>145.9202719846967</v>
+        <v>36.6433508140826</v>
       </c>
       <c r="O4" t="n">
-        <v>287.2554445279131</v>
+        <v>73.60793440230843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_8</t>
+          <t>model_1_29_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999161531979004</v>
+        <v>0.935927332613596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.828261650334269</v>
+        <v>0.7460478160036944</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8213495418325611</v>
+        <v>0.6563913463582933</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9991127628719337</v>
+        <v>0.937258110366719</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000349014552183678</v>
+        <v>0.2667041885331892</v>
       </c>
       <c r="G5" t="n">
-        <v>1.14841513499713</v>
+        <v>1.698179423725581</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6390223301161878</v>
+        <v>1.229068230501909</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009105739682818083</v>
+        <v>0.3006171704582372</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04729041130740756</v>
+        <v>1.430104237033639</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01868193116847608</v>
+        <v>0.5164341086074672</v>
       </c>
       <c r="L5" t="n">
-        <v>1.005366195334375</v>
+        <v>0.9127521124951093</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01897615290929982</v>
+        <v>0.5245674295733233</v>
       </c>
       <c r="N5" t="n">
-        <v>145.9207938796595</v>
+        <v>36.64323028576232</v>
       </c>
       <c r="O5" t="n">
-        <v>287.2559664228759</v>
+        <v>73.60781387398815</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_7</t>
+          <t>model_1_29_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999159698653779</v>
+        <v>0.9359230919423085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8282611213703561</v>
+        <v>0.7459802816304426</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8213514497127238</v>
+        <v>0.6564555711319306</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9991238863818104</v>
+        <v>0.9371236422764195</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003497776787031465</v>
+        <v>0.266721840440636</v>
       </c>
       <c r="G6" t="n">
-        <v>1.148418672181251</v>
+        <v>1.698631026390484</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6390155057394712</v>
+        <v>1.228838502210575</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0008991578787053122</v>
+        <v>0.3012614516085021</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04683646938921693</v>
+        <v>1.429180346437993</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01870234420341863</v>
+        <v>0.5164511985082773</v>
       </c>
       <c r="L6" t="n">
-        <v>1.005377928615815</v>
+        <v>0.9127463379639945</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01899688742913717</v>
+        <v>0.5245847886229874</v>
       </c>
       <c r="N6" t="n">
-        <v>145.9164256180269</v>
+        <v>36.64309791946226</v>
       </c>
       <c r="O6" t="n">
-        <v>287.2515981612433</v>
+        <v>73.60768150768808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_4</t>
+          <t>model_1_29_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999920657842282</v>
+        <v>0.9358841900507107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8282190137725135</v>
+        <v>0.7455250374730595</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8212821245808023</v>
+        <v>0.656887602883422</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999319913500572</v>
+        <v>0.9361984813553821</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003302638496855447</v>
+        <v>0.2668837706029691</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148700245881913</v>
+        <v>1.70167524616711</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6392634777166522</v>
+        <v>1.227293149686131</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000697974693539617</v>
+        <v>0.3056942039518953</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04404843794131516</v>
+        <v>1.422912784891063</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01817316289712786</v>
+        <v>0.5166079467090775</v>
       </c>
       <c r="L7" t="n">
-        <v>1.005077898093951</v>
+        <v>0.9126933651754358</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01845937204625955</v>
+        <v>0.5247440054512597</v>
       </c>
       <c r="N7" t="n">
-        <v>146.0312373569351</v>
+        <v>36.64188406290639</v>
       </c>
       <c r="O7" t="n">
-        <v>287.3664099001514</v>
+        <v>73.60646765113221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_3</t>
+          <t>model_1_29_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999184538604976</v>
+        <v>0.9358703970170449</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8281714304392789</v>
+        <v>0.7454157534331047</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8212634974478188</v>
+        <v>0.6570058531897898</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9993298543309659</v>
+        <v>0.9359395470626436</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003394379827025968</v>
+        <v>0.2669411844738335</v>
       </c>
       <c r="G8" t="n">
-        <v>1.149018435850354</v>
+        <v>1.702406029045495</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6393301058912709</v>
+        <v>1.2268701751968</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0006877723912537888</v>
+        <v>0.3069348438955216</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04716109041103971</v>
+        <v>1.421186528715444</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0184238427778408</v>
+        <v>0.5166635118467662</v>
       </c>
       <c r="L8" t="n">
-        <v>1.005218952928153</v>
+        <v>0.9126745831721462</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01871399988450578</v>
+        <v>0.524800445684322</v>
       </c>
       <c r="N8" t="n">
-        <v>145.976438600208</v>
+        <v>36.64145385543452</v>
       </c>
       <c r="O8" t="n">
-        <v>287.3116111434244</v>
+        <v>73.60603744366034</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_2</t>
+          <t>model_1_29_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999182610461845</v>
+        <v>0.9358231394642917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8281713096255098</v>
+        <v>0.7451257735060393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8212723398971594</v>
+        <v>0.6573485374571193</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9993418098616086</v>
+        <v>0.9351779463114124</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003402405774280478</v>
+        <v>0.2671378952987951</v>
       </c>
       <c r="G9" t="n">
-        <v>1.149019243732585</v>
+        <v>1.704345126153016</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6392984769626943</v>
+        <v>1.225644413442538</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006755023964171581</v>
+        <v>0.3105839253017747</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04694214186478451</v>
+        <v>1.41617005679937</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0184456113324565</v>
+        <v>0.5168538432659615</v>
       </c>
       <c r="L9" t="n">
-        <v>1.00523129304419</v>
+        <v>0.9126102324620143</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01873611127209611</v>
+        <v>0.5249937746331081</v>
       </c>
       <c r="N9" t="n">
-        <v>145.971715219801</v>
+        <v>36.63998058421828</v>
       </c>
       <c r="O9" t="n">
-        <v>287.3068877630174</v>
+        <v>73.6045641724441</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_1</t>
+          <t>model_1_29_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999178604535371</v>
+        <v>0.9358144630341431</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8281550499509205</v>
+        <v>0.7450682051492918</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8212606495959628</v>
+        <v>0.6574040831733557</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999350097527845</v>
+        <v>0.9350531996001579</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000341908055017492</v>
+        <v>0.2671740111709225</v>
       </c>
       <c r="G10" t="n">
-        <v>1.149127972251432</v>
+        <v>1.704730086019665</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6393402924922319</v>
+        <v>1.225445729636286</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006669967411713044</v>
+        <v>0.3111816281057628</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04613161603695681</v>
+        <v>1.415356723815216</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01849075593418214</v>
+        <v>0.5168887802718517</v>
       </c>
       <c r="L10" t="n">
-        <v>1.005256930973623</v>
+        <v>0.9125984177486204</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01878196685617087</v>
+        <v>0.5250292618619169</v>
       </c>
       <c r="N10" t="n">
-        <v>145.9619374040501</v>
+        <v>36.63971021126386</v>
       </c>
       <c r="O10" t="n">
-        <v>287.2971099472665</v>
+        <v>73.60429379948968</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_0</t>
+          <t>model_1_29_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999184568776684</v>
+        <v>0.9357385297298043</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8281403782143717</v>
+        <v>0.744629818960342</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8212026917067984</v>
+        <v>0.6578344430827776</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993768602375031</v>
+        <v>0.9340791798856785</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003394254236483698</v>
+        <v>0.267490085577411</v>
       </c>
       <c r="G11" t="n">
-        <v>1.149226082221291</v>
+        <v>1.707661576483755</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6395476045011816</v>
+        <v>1.223906357193985</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0006395300967258764</v>
+        <v>0.3158484791083185</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04461114073440014</v>
+        <v>1.40908546552771</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01842350193769821</v>
+        <v>0.5171944369165343</v>
       </c>
       <c r="L11" t="n">
-        <v>1.005218759829219</v>
+        <v>0.9124950192065421</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01871365367647166</v>
+        <v>0.5253397322932087</v>
       </c>
       <c r="N11" t="n">
-        <v>145.9765126006865</v>
+        <v>36.6373455531899</v>
       </c>
       <c r="O11" t="n">
-        <v>287.3116851439029</v>
+        <v>73.60192914141572</v>
       </c>
     </row>
   </sheetData>
